--- a/spec/QMD_ENUM.xlsx
+++ b/spec/QMD_ENUM.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="timing_transmission" sheetId="1" r:id="rId1"/>
@@ -199,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,7 +234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/spec/QMD_ENUM.xlsx
+++ b/spec/QMD_ENUM.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\python_project\spec\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="timing_transmission" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="tx_frame_interrupt_time" sheetId="3" r:id="rId2"/>
+    <sheet name="send_now" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
   <si>
     <t>定时间隔</t>
   </si>
@@ -55,12 +50,21 @@
   <si>
     <t>SOF</t>
   </si>
+  <si>
+    <t>ACK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,22 +73,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -120,13 +447,279 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -136,21 +729,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -199,7 +848,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,7 +883,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,24 +1086,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="12.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,11 +1131,11 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -514,328 +1163,776 @@
       <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>100</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <cols>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
+    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3">
+        <v>100</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>100</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <v>100</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1">
-        <v>100</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>100</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1">
-        <v>6</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>100</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>100</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4</v>
-      </c>
-      <c r="H4" s="1">
-        <v>100</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>100</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3</v>
-      </c>
-      <c r="H5" s="1">
-        <v>100</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>100</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>100</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1">
-        <v>100</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="3">
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="7" max="7" width="10.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="12.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="12.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>500</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>500</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>500</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>500</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>500</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>500</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>500</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>500</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>500</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>16</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>500</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>16</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>500</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1">
+        <v>16</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>500</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/spec/QMD_ENUM.xlsx
+++ b/spec/QMD_ENUM.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python\python_project\spec\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="timing_transmission" sheetId="1" r:id="rId1"/>
     <sheet name="tx_frame_interrupt_time" sheetId="3" r:id="rId2"/>
     <sheet name="send_now" sheetId="2" r:id="rId3"/>
+    <sheet name="modalita_modulazione" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="12">
   <si>
     <t>定时间隔</t>
   </si>
@@ -57,14 +63,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,151 +73,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,192 +88,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -471,255 +153,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,62 +184,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1086,24 +488,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="12.1296296296296" customWidth="1"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -1167,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>100</v>
       </c>
@@ -1199,7 +601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -1231,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>100</v>
       </c>
@@ -1263,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>100</v>
       </c>
@@ -1295,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>100</v>
       </c>
@@ -1328,30 +730,29 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="7" max="7" width="11.7777777777778" customWidth="1"/>
-    <col min="8" max="8" width="12.6666666666667" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1380,7 +781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1409,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1438,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1467,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1496,7 +897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1525,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1555,29 +956,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="10.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="12.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="12.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1606,7 +1006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1635,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1664,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1693,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1722,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1751,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1780,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1793,8 +1193,8 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="3">
         <v>500</v>
       </c>
@@ -1805,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1818,8 +1218,8 @@
       <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="4">
         <v>500</v>
       </c>
@@ -1830,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1843,8 +1243,8 @@
       <c r="D10" s="6">
         <v>2</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="4">
         <v>500</v>
       </c>
@@ -1855,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1868,8 +1268,8 @@
       <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="4">
         <v>500</v>
       </c>
@@ -1880,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1893,8 +1293,8 @@
       <c r="D12" s="6">
         <v>4</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4">
         <v>500</v>
       </c>
@@ -1905,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1918,8 +1318,8 @@
       <c r="D13" s="6">
         <v>5</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="4">
         <v>500</v>
       </c>
@@ -1931,8 +1331,539 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7">
+        <v>500</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7">
+        <v>27</v>
+      </c>
+      <c r="D3" s="7">
+        <v>6</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>3</v>
+      </c>
+      <c r="G3" s="7">
+        <v>500</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>27</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>500</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>500</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>500</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7">
+        <v>500</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>27</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="7">
+        <v>500</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
+      <c r="G9" s="7">
+        <v>500</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>500</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>500</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>6</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>500</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7">
+        <v>6</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>500</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>27</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+      <c r="G14" s="7">
+        <v>500</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7">
+        <v>27</v>
+      </c>
+      <c r="D15" s="7">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>3</v>
+      </c>
+      <c r="F15" s="7">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7">
+        <v>500</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7">
+        <v>500</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="7">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7">
+        <v>500</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="7">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="7">
+        <v>500</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="7">
+        <v>27</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="7">
+        <v>500</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7">
+        <v>27</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="7">
+        <v>500</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="7">
+        <v>27</v>
+      </c>
+      <c r="D21" s="7">
+        <v>5</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="7">
+        <v>500</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/spec/QMD_ENUM.xlsx
+++ b/spec/QMD_ENUM.xlsx
@@ -497,7 +497,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
